--- a/data/al-amal-cuisine.xlsx
+++ b/data/al-amal-cuisine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karam\Desktop\al-amal-cuisine\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B3C0CB-8499-44AD-8603-FF3198C64FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AD9A4C-45A9-47FF-8669-C4B2E9645258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t>Kebbe Ma3 Basal w Loz</t>
   </si>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1308,7 +1308,9 @@
       <c r="C41" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="E41" s="5">
         <v>10</v>
       </c>
